--- a/data/trans_orig/P42B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Estudios-trans_orig.xlsx
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4922</v>
+        <v>5851</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004976893179967704</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02497656993107325</v>
+        <v>0.02968922268637671</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>7793</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3564</v>
+        <v>3881</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14412</v>
+        <v>15447</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03954588628954623</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01808424449530451</v>
+        <v>0.01969446781591177</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0731360458149628</v>
+        <v>0.07838890679873715</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>19953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12904</v>
+        <v>13200</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29550</v>
+        <v>30164</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1012512855293567</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0654836596274066</v>
+        <v>0.06698648660677868</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1499544757775432</v>
+        <v>0.1530708221929415</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>134068</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119546</v>
+        <v>119786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146018</v>
+        <v>145263</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6803399766718561</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6066485278973729</v>
+        <v>0.6078640671161671</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7409822631715239</v>
+        <v>0.7371508745084647</v>
       </c>
     </row>
     <row r="8">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6246</v>
+        <v>5213</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005252612044677128</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03169839888939351</v>
+        <v>0.02645328810945221</v>
       </c>
     </row>
     <row r="9">
@@ -769,19 +769,19 @@
         <v>33231</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23662</v>
+        <v>23713</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>44149</v>
+        <v>43812</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1686333462845962</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1200756566568139</v>
+        <v>0.1203325089725161</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2240361880126668</v>
+        <v>0.2223280455441341</v>
       </c>
     </row>
     <row r="10">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5729</v>
+        <v>6671</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005473071932755775</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01701851509317126</v>
+        <v>0.01981773812367626</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>4892</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1899</v>
+        <v>1931</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10929</v>
+        <v>11327</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01453110025610373</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005640154281190727</v>
+        <v>0.005735839563328957</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03246426379612012</v>
+        <v>0.03364604824200915</v>
       </c>
     </row>
     <row r="13">
@@ -889,19 +889,19 @@
         <v>10672</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5757</v>
+        <v>5860</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17539</v>
+        <v>18102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03170042048970152</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01710002903275509</v>
+        <v>0.01740748457383199</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05210068546899553</v>
+        <v>0.05377316247815454</v>
       </c>
     </row>
     <row r="14">
@@ -918,19 +918,19 @@
         <v>253131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234803</v>
+        <v>237447</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>267562</v>
+        <v>268406</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7519370879913485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6974945412414233</v>
+        <v>0.7053490039815331</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7948073980827287</v>
+        <v>0.7973138686372027</v>
       </c>
     </row>
     <row r="15">
@@ -947,19 +947,19 @@
         <v>19668</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11737</v>
+        <v>12581</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30567</v>
+        <v>30503</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05842409490506525</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03486455464546175</v>
+        <v>0.03737318327506108</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09080035308098841</v>
+        <v>0.09061015993128707</v>
       </c>
     </row>
     <row r="16">
@@ -976,19 +976,19 @@
         <v>46434</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34716</v>
+        <v>34368</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59700</v>
+        <v>60200</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1379342244250253</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1031263039921469</v>
+        <v>0.1020921217645056</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1773411010517729</v>
+        <v>0.1788278136309411</v>
       </c>
     </row>
     <row r="17">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5783</v>
+        <v>5817</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009526137422316339</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04786520402025881</v>
+        <v>0.04814416464014516</v>
       </c>
     </row>
     <row r="20">
@@ -1109,19 +1109,19 @@
         <v>97114</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>87718</v>
+        <v>87390</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>105488</v>
+        <v>105114</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8038257312092714</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7260518975907585</v>
+        <v>0.7233365739123647</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8731407121472611</v>
+        <v>0.870037382877391</v>
       </c>
     </row>
     <row r="22">
@@ -1138,19 +1138,19 @@
         <v>10117</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4312</v>
+        <v>5126</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19082</v>
+        <v>18348</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08373803996584203</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03569174444837855</v>
+        <v>0.04242499882178555</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1579456692464887</v>
+        <v>0.1518706163181757</v>
       </c>
     </row>
     <row r="23">
@@ -1167,19 +1167,19 @@
         <v>12433</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6498</v>
+        <v>6875</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20052</v>
+        <v>20534</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1029100914025703</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05378068356639094</v>
+        <v>0.05690205101229286</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1659751991340928</v>
+        <v>0.1699660574195842</v>
       </c>
     </row>
     <row r="24">
@@ -1229,19 +1229,19 @@
         <v>2823</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7877</v>
+        <v>7507</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004313424273206853</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00125095378895103</v>
+        <v>0.001316901309908745</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01203513665132991</v>
+        <v>0.01146883769799683</v>
       </c>
     </row>
     <row r="26">
@@ -1258,19 +1258,19 @@
         <v>13836</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7911</v>
+        <v>7677</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22841</v>
+        <v>22569</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02113866297867358</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01208703635656748</v>
+        <v>0.01173007034512648</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03489811981071405</v>
+        <v>0.03448182379171579</v>
       </c>
     </row>
     <row r="27">
@@ -1287,19 +1287,19 @@
         <v>30624</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21131</v>
+        <v>20844</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>42034</v>
+        <v>42885</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04678920067041029</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03228555573927464</v>
+        <v>0.03184599675607359</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0642211514801516</v>
+        <v>0.06552147352254074</v>
       </c>
     </row>
     <row r="28">
@@ -1316,19 +1316,19 @@
         <v>484313</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>462446</v>
+        <v>462618</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>505007</v>
+        <v>505244</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7399587140533042</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7065489983117857</v>
+        <v>0.7068129384815227</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7715771859387025</v>
+        <v>0.7719382072008186</v>
       </c>
     </row>
     <row r="29">
@@ -1345,19 +1345,19 @@
         <v>30820</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20797</v>
+        <v>20530</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>45135</v>
+        <v>43487</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04708793335115519</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03177411724751907</v>
+        <v>0.03136675397059274</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06896007645694004</v>
+        <v>0.0664424958447261</v>
       </c>
     </row>
     <row r="30">
@@ -1374,19 +1374,19 @@
         <v>92098</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>76213</v>
+        <v>75508</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>112739</v>
+        <v>110385</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.14071206467325</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.116442139036623</v>
+        <v>0.1153647474304056</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1722483442965661</v>
+        <v>0.1686526087316564</v>
       </c>
     </row>
     <row r="31">
@@ -1553,19 +1553,19 @@
         <v>15272</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9017</v>
+        <v>8925</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25701</v>
+        <v>24637</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01581655223340742</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009338368353768743</v>
+        <v>0.009243187175344369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02661629079314058</v>
+        <v>0.02551435150566485</v>
       </c>
     </row>
     <row r="5">
@@ -1582,19 +1582,19 @@
         <v>12647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7131</v>
+        <v>6225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22158</v>
+        <v>21327</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0130978167241034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007384640243967575</v>
+        <v>0.006446848146557275</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02294771733617599</v>
+        <v>0.02208699686502215</v>
       </c>
     </row>
     <row r="6">
@@ -1611,19 +1611,19 @@
         <v>18625</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11347</v>
+        <v>11908</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28710</v>
+        <v>28721</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01928829314451229</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01175165214559203</v>
+        <v>0.01233191689851343</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02973326991736415</v>
+        <v>0.02974393375939806</v>
       </c>
     </row>
     <row r="7">
@@ -1640,19 +1640,19 @@
         <v>681689</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>649335</v>
+        <v>653563</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>707040</v>
+        <v>709059</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7059759328250834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6724691612769603</v>
+        <v>0.6768475734458674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7322302027529957</v>
+        <v>0.7343210529367906</v>
       </c>
     </row>
     <row r="8">
@@ -1669,19 +1669,19 @@
         <v>26551</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17038</v>
+        <v>17600</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39195</v>
+        <v>40068</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02749673690089862</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01764450856087141</v>
+        <v>0.01822656796033406</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04059129930598431</v>
+        <v>0.04149590189164519</v>
       </c>
     </row>
     <row r="9">
@@ -1698,19 +1698,19 @@
         <v>210814</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>188097</v>
+        <v>186296</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>236778</v>
+        <v>239067</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2183246681719948</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1947985035813857</v>
+        <v>0.1929335303428845</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2452137397820549</v>
+        <v>0.2475848049279835</v>
       </c>
     </row>
     <row r="10">
@@ -1760,19 +1760,19 @@
         <v>25281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16088</v>
+        <v>16494</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35657</v>
+        <v>37164</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01851903468765727</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01178486310914477</v>
+        <v>0.01208227793941421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02611980237951468</v>
+        <v>0.02722364060816254</v>
       </c>
     </row>
     <row r="12">
@@ -1789,19 +1789,19 @@
         <v>9680</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4768</v>
+        <v>5024</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17284</v>
+        <v>17769</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007090680380774197</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003492662091708436</v>
+        <v>0.003680116275719478</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01266124791842131</v>
+        <v>0.01301638658459028</v>
       </c>
     </row>
     <row r="13">
@@ -1818,19 +1818,19 @@
         <v>14493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8328</v>
+        <v>7857</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24986</v>
+        <v>26457</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01061632637416887</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006100457072574538</v>
+        <v>0.005755154974018004</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01830283054234469</v>
+        <v>0.01938031773156961</v>
       </c>
     </row>
     <row r="14">
@@ -1847,19 +1847,19 @@
         <v>987349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>954814</v>
+        <v>955098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1020553</v>
+        <v>1020487</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.723265224302243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6994323296529548</v>
+        <v>0.6996401862189552</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7475883818016853</v>
+        <v>0.7475401485684505</v>
       </c>
     </row>
     <row r="15">
@@ -1876,19 +1876,19 @@
         <v>109024</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>91055</v>
+        <v>90377</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>130938</v>
+        <v>130837</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0798633538177464</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06670052137584902</v>
+        <v>0.0662044214987336</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09591611405066625</v>
+        <v>0.09584242501781602</v>
       </c>
     </row>
     <row r="16">
@@ -1905,19 +1905,19 @@
         <v>219301</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>189192</v>
+        <v>193343</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>245507</v>
+        <v>246062</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1606453804374103</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1385894782371092</v>
+        <v>0.1416302890276351</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.179842078862689</v>
+        <v>0.1802486152935563</v>
       </c>
     </row>
     <row r="17">
@@ -1967,19 +1967,19 @@
         <v>3177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9266</v>
+        <v>9056</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007813533364019834</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002413666508325175</v>
+        <v>0.00242019988429181</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02279126581710016</v>
+        <v>0.02227407838688868</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6851</v>
+        <v>13057</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004211489809327727</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01685058846944643</v>
+        <v>0.03211586079439223</v>
       </c>
     </row>
     <row r="20">
@@ -2025,19 +2025,19 @@
         <v>9852</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4502</v>
+        <v>4741</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18714</v>
+        <v>20312</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02423066112888501</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0110728811574109</v>
+        <v>0.01166087583980063</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04602817848255224</v>
+        <v>0.0499580442881887</v>
       </c>
     </row>
     <row r="21">
@@ -2054,19 +2054,19 @@
         <v>305719</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>287900</v>
+        <v>286621</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>324767</v>
+        <v>324138</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7519429338047576</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7081144777145157</v>
+        <v>0.7049702257638004</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7987942001312017</v>
+        <v>0.7972454774266871</v>
       </c>
     </row>
     <row r="22">
@@ -2083,19 +2083,19 @@
         <v>26111</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16801</v>
+        <v>16408</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38914</v>
+        <v>38788</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06422311391474766</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0413247199532371</v>
+        <v>0.04035816043549006</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09571178663690405</v>
+        <v>0.09540232550021537</v>
       </c>
     </row>
     <row r="23">
@@ -2112,19 +2112,19 @@
         <v>60001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46097</v>
+        <v>46318</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75136</v>
+        <v>76767</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1475782679782622</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1133799581951648</v>
+        <v>0.1139233422861448</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1848043419434148</v>
+        <v>0.1888161331469244</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>43730</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31523</v>
+        <v>32414</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>59100</v>
+        <v>58950</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0159756240116853</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01151593202814896</v>
+        <v>0.01184167585565174</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02159055709199818</v>
+        <v>0.02153602181107753</v>
       </c>
     </row>
     <row r="26">
@@ -2203,19 +2203,19 @@
         <v>24039</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15079</v>
+        <v>15616</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>36383</v>
+        <v>35329</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008782087257062079</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005508823556327815</v>
+        <v>0.005704979810887223</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01329142583025934</v>
+        <v>0.01290635430042959</v>
       </c>
     </row>
     <row r="27">
@@ -2232,19 +2232,19 @@
         <v>42969</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>31239</v>
+        <v>31594</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>57872</v>
+        <v>58203</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01569755995092753</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0114125151736425</v>
+        <v>0.01154194946983243</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02114184250989595</v>
+        <v>0.0212631031202158</v>
       </c>
     </row>
     <row r="28">
@@ -2261,19 +2261,19 @@
         <v>1974757</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1923938</v>
+        <v>1925309</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2018294</v>
+        <v>2023184</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7214258340379515</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7028605020837017</v>
+        <v>0.7033614327154291</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7373310859872889</v>
+        <v>0.739117384473439</v>
       </c>
     </row>
     <row r="29">
@@ -2290,19 +2290,19 @@
         <v>161686</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>136317</v>
+        <v>137588</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>190449</v>
+        <v>190748</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05906765385738153</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0497998825345141</v>
+        <v>0.05026400225685422</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06957569433528875</v>
+        <v>0.06968469288114994</v>
       </c>
     </row>
     <row r="30">
@@ -2319,19 +2319,19 @@
         <v>490116</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>450036</v>
+        <v>449239</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>534700</v>
+        <v>532803</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1790512408849921</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1644088175994449</v>
+        <v>0.1641176428157088</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1953386073919253</v>
+        <v>0.1946456752530782</v>
       </c>
     </row>
     <row r="31">
@@ -2498,19 +2498,19 @@
         <v>19095</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11865</v>
+        <v>11159</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30646</v>
+        <v>30237</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02766968061890551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01719301019200159</v>
+        <v>0.01617041340449244</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04440771814333493</v>
+        <v>0.04381566594273003</v>
       </c>
     </row>
     <row r="5">
@@ -2527,19 +2527,19 @@
         <v>3049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9156</v>
+        <v>9166</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004417480229692538</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001403815182650856</v>
+        <v>0.001397954459161618</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01326759256933674</v>
+        <v>0.01328178001865678</v>
       </c>
     </row>
     <row r="6">
@@ -2556,19 +2556,19 @@
         <v>43925</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31350</v>
+        <v>31827</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57555</v>
+        <v>59894</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06364970891506054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04542822892167005</v>
+        <v>0.04611931163727656</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0834000984418363</v>
+        <v>0.08678956380107537</v>
       </c>
     </row>
     <row r="7">
@@ -2585,19 +2585,19 @@
         <v>464221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>438527</v>
+        <v>438084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>489511</v>
+        <v>487705</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6726853410675174</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6354519797293978</v>
+        <v>0.6348098154920455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7093320897997416</v>
+        <v>0.7067140672798142</v>
       </c>
     </row>
     <row r="8">
@@ -2614,19 +2614,19 @@
         <v>27627</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18933</v>
+        <v>18225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39307</v>
+        <v>38504</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04003328368485782</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02743512339891009</v>
+        <v>0.02640920459985388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05695773161555383</v>
+        <v>0.05579493935370571</v>
       </c>
     </row>
     <row r="9">
@@ -2643,19 +2643,19 @@
         <v>132185</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>112343</v>
+        <v>113382</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>154477</v>
+        <v>156026</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1915445054839662</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1627917722842573</v>
+        <v>0.1642981071972763</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2238463760078735</v>
+        <v>0.226090550802472</v>
       </c>
     </row>
     <row r="10">
@@ -2705,19 +2705,19 @@
         <v>36940</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26712</v>
+        <v>26438</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53166</v>
+        <v>50814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02311607033378593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01671555175939196</v>
+        <v>0.0165441220302902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03327030702851859</v>
+        <v>0.031798266783113</v>
       </c>
     </row>
     <row r="12">
@@ -2734,19 +2734,19 @@
         <v>12033</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6913</v>
+        <v>6743</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22307</v>
+        <v>21089</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007530071469633098</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004325810135917159</v>
+        <v>0.004219589646976657</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01395953005876778</v>
+        <v>0.01319685997484792</v>
       </c>
     </row>
     <row r="13">
@@ -2763,19 +2763,19 @@
         <v>37303</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25849</v>
+        <v>26369</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50290</v>
+        <v>51154</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02334330808933556</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01617549664856112</v>
+        <v>0.01650147071436487</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03147065329256508</v>
+        <v>0.03201117359919625</v>
       </c>
     </row>
     <row r="14">
@@ -2792,19 +2792,19 @@
         <v>1220516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1185970</v>
+        <v>1185207</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1256288</v>
+        <v>1252122</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7637727497126802</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7421548819209579</v>
+        <v>0.7416770580611051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7861582810007547</v>
+        <v>0.7835509746023516</v>
       </c>
     </row>
     <row r="15">
@@ -2821,19 +2821,19 @@
         <v>96836</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>79528</v>
+        <v>78022</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>118786</v>
+        <v>115790</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06059785340300301</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04976718787054987</v>
+        <v>0.04882444126965414</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07433402185576755</v>
+        <v>0.07245892986741068</v>
       </c>
     </row>
     <row r="16">
@@ -2850,19 +2850,19 @@
         <v>194382</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>167681</v>
+        <v>172234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>223535</v>
+        <v>221903</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1216399469915622</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1049309715000397</v>
+        <v>0.1077803639254982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1398835543488065</v>
+        <v>0.1388619088814873</v>
       </c>
     </row>
     <row r="17">
@@ -2912,19 +2912,19 @@
         <v>14274</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8256</v>
+        <v>7447</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24409</v>
+        <v>23050</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02961565570785918</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01712913260427488</v>
+        <v>0.01544985370743629</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05064304772815081</v>
+        <v>0.04782301807398315</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         <v>7549</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2589</v>
+        <v>2343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16044</v>
+        <v>14782</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01566214037737554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005370567228173493</v>
+        <v>0.004861396076173535</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03328681949905524</v>
+        <v>0.03066839004930455</v>
       </c>
     </row>
     <row r="21">
@@ -2991,19 +2991,19 @@
         <v>386598</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>367810</v>
+        <v>368802</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>403734</v>
+        <v>403200</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.802104519847613</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7631245484421519</v>
+        <v>0.7651822768564797</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.837658432084989</v>
+        <v>0.8365507254803076</v>
       </c>
     </row>
     <row r="22">
@@ -3020,19 +3020,19 @@
         <v>22673</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14651</v>
+        <v>15546</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34423</v>
+        <v>34195</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04704082109405527</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03039702783483009</v>
+        <v>0.03225502956910185</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07142055096581504</v>
+        <v>0.07094690450543864</v>
       </c>
     </row>
     <row r="23">
@@ -3049,19 +3049,19 @@
         <v>50886</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>37472</v>
+        <v>36842</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>63902</v>
+        <v>64779</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.105576862973097</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07774586117498862</v>
+        <v>0.07643838980242813</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1325823060606934</v>
+        <v>0.1344031279598932</v>
       </c>
     </row>
     <row r="24">
@@ -3111,19 +3111,19 @@
         <v>70309</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56270</v>
+        <v>54163</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>89217</v>
+        <v>89998</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02538138324017563</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02031352822652779</v>
+        <v>0.01955272534606196</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03220730092796605</v>
+        <v>0.0324891295655487</v>
       </c>
     </row>
     <row r="26">
@@ -3140,19 +3140,19 @@
         <v>15082</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8973</v>
+        <v>8972</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24880</v>
+        <v>23306</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005444455360114519</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003239396967344559</v>
+        <v>0.003238834025665852</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008981746132767181</v>
+        <v>0.00841355880580457</v>
       </c>
     </row>
     <row r="27">
@@ -3169,19 +3169,19 @@
         <v>88776</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>69338</v>
+        <v>71580</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>108728</v>
+        <v>107864</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03204820384353445</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02503085610676653</v>
+        <v>0.0258402217985173</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03925061600865205</v>
+        <v>0.03893895988957836</v>
       </c>
     </row>
     <row r="28">
@@ -3198,19 +3198,19 @@
         <v>2071335</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2024179</v>
+        <v>2023819</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2116289</v>
+        <v>2117722</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.747750008625927</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7307266291847982</v>
+        <v>0.7305969960272971</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7639782746091763</v>
+        <v>0.7644957372836014</v>
       </c>
     </row>
     <row r="29">
@@ -3227,19 +3227,19 @@
         <v>147136</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>126676</v>
+        <v>127687</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>171042</v>
+        <v>172398</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05311583886019102</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04572990234893095</v>
+        <v>0.04609477120387301</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06174596607398074</v>
+        <v>0.06223556376335824</v>
       </c>
     </row>
     <row r="30">
@@ -3256,19 +3256,19 @@
         <v>377453</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>342313</v>
+        <v>339269</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>415590</v>
+        <v>412568</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1362601100700573</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1235745242031869</v>
+        <v>0.1224757985824107</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1500274703542417</v>
+        <v>0.1489365377902713</v>
       </c>
     </row>
     <row r="31">
@@ -3435,19 +3435,19 @@
         <v>23132</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16578</v>
+        <v>16378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31865</v>
+        <v>31165</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0501595234204049</v>
+        <v>0.05015952342040491</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03594869676647316</v>
+        <v>0.03551402061216147</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0690959512849392</v>
+        <v>0.06757889109272419</v>
       </c>
     </row>
     <row r="5">
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4577</v>
+        <v>4370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00277758115193686</v>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.009924696952265341</v>
+        <v>0.009475680797243709</v>
       </c>
     </row>
     <row r="6">
@@ -3493,19 +3493,19 @@
         <v>44159</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35555</v>
+        <v>35038</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53418</v>
+        <v>54036</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09575462529169111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07709851147706541</v>
+        <v>0.07597720411926277</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1158332390080598</v>
+        <v>0.1171725651683166</v>
       </c>
     </row>
     <row r="7">
@@ -3522,19 +3522,19 @@
         <v>297817</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>280122</v>
+        <v>280620</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>312693</v>
+        <v>313438</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6457910225168896</v>
+        <v>0.6457910225168895</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6074202838066067</v>
+        <v>0.6085009567334109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6780496188809709</v>
+        <v>0.6796641642843158</v>
       </c>
     </row>
     <row r="8">
@@ -3551,19 +3551,19 @@
         <v>9768</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5431</v>
+        <v>5542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15856</v>
+        <v>15952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02118172787044293</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01177636514914553</v>
+        <v>0.01201739354697317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03438300032614661</v>
+        <v>0.03459146483435625</v>
       </c>
     </row>
     <row r="9">
@@ -3580,19 +3580,19 @@
         <v>85009</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>72389</v>
+        <v>73632</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>98046</v>
+        <v>99153</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1843355197486347</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1569689482271071</v>
+        <v>0.1596646719558895</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2126052387137252</v>
+        <v>0.2150056142069353</v>
       </c>
     </row>
     <row r="10">
@@ -3642,19 +3642,19 @@
         <v>84245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68167</v>
+        <v>69037</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102244</v>
+        <v>101845</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07093093717056749</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05739347828746832</v>
+        <v>0.05812649972772491</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08608479884489784</v>
+        <v>0.08574862981771603</v>
       </c>
     </row>
     <row r="12">
@@ -3671,19 +3671,19 @@
         <v>10544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6027</v>
+        <v>5692</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18035</v>
+        <v>17836</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008877504472496798</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005074441708024666</v>
+        <v>0.004792390000554783</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01518472443538043</v>
+        <v>0.01501680421650241</v>
       </c>
     </row>
     <row r="13">
@@ -3700,19 +3700,19 @@
         <v>22701</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16003</v>
+        <v>16428</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30813</v>
+        <v>30955</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01911343742478946</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01347410133292284</v>
+        <v>0.01383190695896917</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02594290843220232</v>
+        <v>0.02606310397741272</v>
       </c>
     </row>
     <row r="14">
@@ -3729,19 +3729,19 @@
         <v>829925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>800954</v>
+        <v>801469</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>860838</v>
+        <v>860036</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.698760849962386</v>
+        <v>0.6987608499623861</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6743683435972011</v>
+        <v>0.6748021756106474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7247877683850353</v>
+        <v>0.724113199208977</v>
       </c>
     </row>
     <row r="15">
@@ -3758,19 +3758,19 @@
         <v>41044</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29887</v>
+        <v>29703</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>54663</v>
+        <v>56059</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03455748360910765</v>
+        <v>0.03455748360910766</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02516370980449249</v>
+        <v>0.02500838763511195</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04602353716556568</v>
+        <v>0.04719921456728293</v>
       </c>
     </row>
     <row r="16">
@@ -3787,19 +3787,19 @@
         <v>199250</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>175726</v>
+        <v>177017</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>224006</v>
+        <v>223377</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1677597873606526</v>
+        <v>0.1677597873606527</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1479539110515286</v>
+        <v>0.1490402108656981</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1886031646427431</v>
+        <v>0.1880740605670536</v>
       </c>
     </row>
     <row r="17">
@@ -3849,19 +3849,19 @@
         <v>19101</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12179</v>
+        <v>12063</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27587</v>
+        <v>29376</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0428370944531964</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02731272681235213</v>
+        <v>0.02705335767405037</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0618686427186581</v>
+        <v>0.06588155863571619</v>
       </c>
     </row>
     <row r="19">
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4620</v>
+        <v>5204</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003403990646612014</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01036100500960068</v>
+        <v>0.01167064218486195</v>
       </c>
     </row>
     <row r="20">
@@ -3907,19 +3907,19 @@
         <v>5298</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2510</v>
+        <v>2521</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10225</v>
+        <v>9701</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01188134383355725</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005627996841844177</v>
+        <v>0.005654485866834378</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02293022821732084</v>
+        <v>0.02175569044954503</v>
       </c>
     </row>
     <row r="21">
@@ -3936,19 +3936,19 @@
         <v>360313</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>344011</v>
+        <v>343629</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>372643</v>
+        <v>374577</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.808062677688106</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7715034592817043</v>
+        <v>0.7706473464719297</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8357151995302061</v>
+        <v>0.8400518003105302</v>
       </c>
     </row>
     <row r="22">
@@ -3965,19 +3965,19 @@
         <v>12057</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6932</v>
+        <v>7481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19357</v>
+        <v>19248</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02704040604740026</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01554552087357585</v>
+        <v>0.01677811037803895</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04341031840044262</v>
+        <v>0.04316729693977795</v>
       </c>
     </row>
     <row r="23">
@@ -3994,19 +3994,19 @@
         <v>47610</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36497</v>
+        <v>36582</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>60681</v>
+        <v>62325</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1067744873311281</v>
+        <v>0.1067744873311282</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08185163653749823</v>
+        <v>0.08204178958754976</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1360877246751892</v>
+        <v>0.1397746558724683</v>
       </c>
     </row>
     <row r="24">
@@ -4056,19 +4056,19 @@
         <v>126478</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106923</v>
+        <v>108551</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>147887</v>
+        <v>149892</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06037798604880911</v>
+        <v>0.06037798604880912</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05104267509413107</v>
+        <v>0.05181999829992509</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07059787533303796</v>
+        <v>0.07155535132134891</v>
       </c>
     </row>
     <row r="26">
@@ -4085,19 +4085,19 @@
         <v>13343</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7635</v>
+        <v>7895</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20479</v>
+        <v>22251</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006369498978472801</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003644550313493092</v>
+        <v>0.003769030106747001</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.009776269679945286</v>
+        <v>0.01062229957896922</v>
       </c>
     </row>
     <row r="27">
@@ -4114,19 +4114,19 @@
         <v>72158</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>60729</v>
+        <v>59905</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>85892</v>
+        <v>87099</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03444662457359669</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02899079972451375</v>
+        <v>0.02859728609906451</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04100303180523574</v>
+        <v>0.04157934014366362</v>
       </c>
     </row>
     <row r="28">
@@ -4143,19 +4143,19 @@
         <v>1488055</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1453920</v>
+        <v>1449037</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1525258</v>
+        <v>1524830</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7103656824351449</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6940706577008781</v>
+        <v>0.6917392645746669</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7281258032832675</v>
+        <v>0.7279212021193253</v>
       </c>
     </row>
     <row r="29">
@@ -4172,19 +4172,19 @@
         <v>62870</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49347</v>
+        <v>49322</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>80189</v>
+        <v>79769</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03001270062884179</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02355700267469353</v>
+        <v>0.02354529185910837</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03828030862561019</v>
+        <v>0.03807997178563489</v>
       </c>
     </row>
     <row r="30">
@@ -4201,19 +4201,19 @@
         <v>331870</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>303315</v>
+        <v>302009</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>359250</v>
+        <v>362082</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1584275073351349</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1447962923291461</v>
+        <v>0.1441727899229105</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1714983943711394</v>
+        <v>0.172850093345325</v>
       </c>
     </row>
     <row r="31">
